--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1135"/>
+  <dimension ref="A1:I1136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40211,6 +40211,41 @@
         <v>29559300</v>
       </c>
     </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1136" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>18187600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1136"/>
+  <dimension ref="A1:I1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40246,6 +40246,41 @@
         <v>18187600</v>
       </c>
     </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1137" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>43026400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1137"/>
+  <dimension ref="A1:I1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40281,6 +40281,41 @@
         <v>43026400</v>
       </c>
     </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1138" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>37905200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1138"/>
+  <dimension ref="A1:I1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40316,6 +40316,41 @@
         <v>37905200</v>
       </c>
     </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1139" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>33078500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1139"/>
+  <dimension ref="A1:I1140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40351,6 +40351,41 @@
         <v>33078500</v>
       </c>
     </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1140" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>8620700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1140"/>
+  <dimension ref="A1:I1141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40386,6 +40386,41 @@
         <v>8620700</v>
       </c>
     </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1141" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>4080700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1141"/>
+  <dimension ref="A1:I1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40421,6 +40421,41 @@
         <v>4080700</v>
       </c>
     </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>3488400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1142"/>
+  <dimension ref="A1:I1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40456,6 +40456,41 @@
         <v>3488400</v>
       </c>
     </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1143" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>4868300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1143"/>
+  <dimension ref="A1:I1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40491,6 +40491,41 @@
         <v>4868300</v>
       </c>
     </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>1745900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1144"/>
+  <dimension ref="A1:I1145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40526,6 +40526,41 @@
         <v>1745900</v>
       </c>
     </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1145" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>4018100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1145"/>
+  <dimension ref="A1:I1146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40561,6 +40561,41 @@
         <v>4018100</v>
       </c>
     </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1146" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>1883300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1146"/>
+  <dimension ref="A1:I1147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40596,6 +40596,41 @@
         <v>1883300</v>
       </c>
     </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>4772400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1147"/>
+  <dimension ref="A1:I1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40631,6 +40631,76 @@
         <v>4772400</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>3454100</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8621500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1149"/>
+  <dimension ref="A1:I1151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40701,6 +40701,76 @@
         <v>8621500</v>
       </c>
     </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1150" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>2973000</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1151" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>1020200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1151"/>
+  <dimension ref="A1:I1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40771,6 +40771,41 @@
         <v>1020200</v>
       </c>
     </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>868100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1152"/>
+  <dimension ref="A1:I1153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40806,6 +40806,41 @@
         <v>868100</v>
       </c>
     </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1158200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1153"/>
+  <dimension ref="A1:I1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40841,6 +40841,41 @@
         <v>1158200</v>
       </c>
     </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1482100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1154"/>
+  <dimension ref="A1:I1155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40876,6 +40876,41 @@
         <v>1482100</v>
       </c>
     </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>3030200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1155"/>
+  <dimension ref="A1:I1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40911,6 +40911,76 @@
         <v>3030200</v>
       </c>
     </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>2067400</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>477500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1157"/>
+  <dimension ref="A1:I1158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40981,6 +40981,41 @@
         <v>477500</v>
       </c>
     </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>2413200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1158"/>
+  <dimension ref="A1:I1159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41016,6 +41016,41 @@
         <v>2413200</v>
       </c>
     </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>1820400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1159"/>
+  <dimension ref="A1:I1168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38498,11 +38498,11 @@
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -38516,28 +38516,28 @@
         </is>
       </c>
       <c r="E1087" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="F1087" t="n">
         <v>0.13</v>
       </c>
       <c r="G1087" t="n">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="H1087" t="n">
         <v>0.13</v>
       </c>
       <c r="I1087" t="n">
-        <v>355100</v>
+        <v>322000</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -38551,28 +38551,28 @@
         </is>
       </c>
       <c r="E1088" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="F1088" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="G1088" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="H1088" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I1088" t="n">
-        <v>374800</v>
+        <v>564000</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -38586,28 +38586,28 @@
         </is>
       </c>
       <c r="E1089" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F1089" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G1089" t="n">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="H1089" t="n">
-        <v>0.13</v>
+        <v>0.115</v>
       </c>
       <c r="I1089" t="n">
-        <v>506100</v>
+        <v>370600</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -38621,28 +38621,28 @@
         </is>
       </c>
       <c r="E1090" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1090" t="n">
         <v>0.125</v>
       </c>
-      <c r="F1090" t="n">
-        <v>0.13</v>
-      </c>
       <c r="G1090" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H1090" t="n">
         <v>0.12</v>
       </c>
       <c r="I1090" t="n">
-        <v>540100</v>
+        <v>609500</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -38656,28 +38656,28 @@
         </is>
       </c>
       <c r="E1091" t="n">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="F1091" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="G1091" t="n">
         <v>0.12</v>
       </c>
       <c r="H1091" t="n">
-        <v>0.135</v>
+        <v>0.12</v>
       </c>
       <c r="I1091" t="n">
-        <v>2297900</v>
+        <v>321200</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -38691,28 +38691,28 @@
         </is>
       </c>
       <c r="E1092" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F1092" t="n">
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="G1092" t="n">
-        <v>0.135</v>
+        <v>0.12</v>
       </c>
       <c r="H1092" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="I1092" t="n">
-        <v>17989500</v>
+        <v>735400</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -38726,28 +38726,28 @@
         </is>
       </c>
       <c r="E1093" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="F1093" t="n">
         <v>0.135</v>
       </c>
       <c r="G1093" t="n">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="H1093" t="n">
         <v>0.125</v>
       </c>
       <c r="I1093" t="n">
-        <v>2028400</v>
+        <v>735100</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -38767,22 +38767,22 @@
         <v>0.125</v>
       </c>
       <c r="G1094" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="H1094" t="n">
-        <v>0.115</v>
+        <v>0.125</v>
       </c>
       <c r="I1094" t="n">
-        <v>2547900</v>
+        <v>343000</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -38796,28 +38796,28 @@
         </is>
       </c>
       <c r="E1095" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1095" t="n">
         <v>0.12</v>
       </c>
-      <c r="F1095" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G1095" t="n">
-        <v>0.115</v>
-      </c>
       <c r="H1095" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="I1095" t="n">
-        <v>2190100</v>
+        <v>391000</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -38831,28 +38831,28 @@
         </is>
       </c>
       <c r="E1096" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1096" t="n">
         <v>0.12</v>
       </c>
-      <c r="F1096" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G1096" t="n">
-        <v>0.115</v>
-      </c>
       <c r="H1096" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I1096" t="n">
-        <v>404500</v>
+        <v>355100</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -38866,28 +38866,28 @@
         </is>
       </c>
       <c r="E1097" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F1097" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G1097" t="n">
-        <v>0.115</v>
+        <v>0.125</v>
       </c>
       <c r="H1097" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I1097" t="n">
-        <v>1487000</v>
+        <v>374800</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -38901,28 +38901,28 @@
         </is>
       </c>
       <c r="E1098" t="n">
-        <v>0.115</v>
+        <v>0.125</v>
       </c>
       <c r="F1098" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G1098" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="H1098" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="I1098" t="n">
-        <v>627400</v>
+        <v>506100</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -38936,28 +38936,28 @@
         </is>
       </c>
       <c r="E1099" t="n">
-        <v>0.115</v>
+        <v>0.125</v>
       </c>
       <c r="F1099" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="G1099" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H1099" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="I1099" t="n">
-        <v>1581400</v>
+        <v>540100</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -38971,28 +38971,28 @@
         </is>
       </c>
       <c r="E1100" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F1100" t="n">
-        <v>0.115</v>
+        <v>0.135</v>
       </c>
       <c r="G1100" t="n">
-        <v>0.105</v>
+        <v>0.12</v>
       </c>
       <c r="H1100" t="n">
-        <v>0.105</v>
+        <v>0.135</v>
       </c>
       <c r="I1100" t="n">
-        <v>2199200</v>
+        <v>2297900</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -39006,28 +39006,28 @@
         </is>
       </c>
       <c r="E1101" t="n">
-        <v>0.105</v>
+        <v>0.14</v>
       </c>
       <c r="F1101" t="n">
-        <v>0.11</v>
+        <v>0.155</v>
       </c>
       <c r="G1101" t="n">
-        <v>0.105</v>
+        <v>0.135</v>
       </c>
       <c r="H1101" t="n">
-        <v>0.11</v>
+        <v>0.135</v>
       </c>
       <c r="I1101" t="n">
-        <v>1676900</v>
+        <v>17989500</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -39041,28 +39041,28 @@
         </is>
       </c>
       <c r="E1102" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1102" t="n">
         <v>0.12</v>
       </c>
-      <c r="F1102" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G1102" t="n">
-        <v>0.11</v>
-      </c>
       <c r="H1102" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="I1102" t="n">
-        <v>2496000</v>
+        <v>2028400</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -39076,28 +39076,28 @@
         </is>
       </c>
       <c r="E1103" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="F1103" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="G1103" t="n">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="H1103" t="n">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="I1103" t="n">
-        <v>322000</v>
+        <v>2547900</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -39111,28 +39111,28 @@
         </is>
       </c>
       <c r="E1104" t="n">
-        <v>0.105</v>
+        <v>0.12</v>
       </c>
       <c r="F1104" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G1104" t="n">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="H1104" t="n">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="I1104" t="n">
-        <v>643000</v>
+        <v>2190100</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -39146,28 +39146,28 @@
         </is>
       </c>
       <c r="E1105" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F1105" t="n">
         <v>0.12</v>
       </c>
       <c r="G1105" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="H1105" t="n">
         <v>0.12</v>
       </c>
       <c r="I1105" t="n">
-        <v>4689500</v>
+        <v>404500</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -39181,28 +39181,28 @@
         </is>
       </c>
       <c r="E1106" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F1106" t="n">
-        <v>0.145</v>
+        <v>0.12</v>
       </c>
       <c r="G1106" t="n">
-        <v>0.13</v>
+        <v>0.115</v>
       </c>
       <c r="H1106" t="n">
-        <v>0.145</v>
+        <v>0.12</v>
       </c>
       <c r="I1106" t="n">
-        <v>8599400</v>
+        <v>1487000</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -39216,28 +39216,28 @@
         </is>
       </c>
       <c r="E1107" t="n">
-        <v>0.145</v>
+        <v>0.115</v>
       </c>
       <c r="F1107" t="n">
-        <v>0.155</v>
+        <v>0.12</v>
       </c>
       <c r="G1107" t="n">
-        <v>0.135</v>
+        <v>0.11</v>
       </c>
       <c r="H1107" t="n">
-        <v>0.14</v>
+        <v>0.115</v>
       </c>
       <c r="I1107" t="n">
-        <v>23121400</v>
+        <v>627400</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -39251,28 +39251,28 @@
         </is>
       </c>
       <c r="E1108" t="n">
-        <v>0.14</v>
+        <v>0.115</v>
       </c>
       <c r="F1108" t="n">
-        <v>0.14</v>
+        <v>0.115</v>
       </c>
       <c r="G1108" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H1108" t="n">
-        <v>0.13</v>
+        <v>0.115</v>
       </c>
       <c r="I1108" t="n">
-        <v>1501900</v>
+        <v>1581400</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -39286,28 +39286,28 @@
         </is>
       </c>
       <c r="E1109" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F1109" t="n">
-        <v>0.14</v>
+        <v>0.115</v>
       </c>
       <c r="G1109" t="n">
-        <v>0.13</v>
+        <v>0.105</v>
       </c>
       <c r="H1109" t="n">
-        <v>0.14</v>
+        <v>0.105</v>
       </c>
       <c r="I1109" t="n">
-        <v>1579900</v>
+        <v>2199200</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -39321,28 +39321,28 @@
         </is>
       </c>
       <c r="E1110" t="n">
-        <v>0.135</v>
+        <v>0.105</v>
       </c>
       <c r="F1110" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G1110" t="n">
-        <v>0.13</v>
+        <v>0.105</v>
       </c>
       <c r="H1110" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I1110" t="n">
-        <v>15955700</v>
+        <v>1676900</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -39356,28 +39356,28 @@
         </is>
       </c>
       <c r="E1111" t="n">
-        <v>0.155</v>
+        <v>0.12</v>
       </c>
       <c r="F1111" t="n">
-        <v>0.165</v>
+        <v>0.12</v>
       </c>
       <c r="G1111" t="n">
-        <v>0.155</v>
+        <v>0.11</v>
       </c>
       <c r="H1111" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I1111" t="n">
-        <v>12032800</v>
+        <v>2496000</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -39391,28 +39391,28 @@
         </is>
       </c>
       <c r="E1112" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F1112" t="n">
-        <v>0.165</v>
+        <v>0.11</v>
       </c>
       <c r="G1112" t="n">
-        <v>0.13</v>
+        <v>0.105</v>
       </c>
       <c r="H1112" t="n">
-        <v>0.14</v>
+        <v>0.105</v>
       </c>
       <c r="I1112" t="n">
-        <v>26300000</v>
+        <v>322000</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -39426,28 +39426,28 @@
         </is>
       </c>
       <c r="E1113" t="n">
-        <v>0.13</v>
+        <v>0.105</v>
       </c>
       <c r="F1113" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G1113" t="n">
-        <v>0.13</v>
+        <v>0.105</v>
       </c>
       <c r="H1113" t="n">
-        <v>0.14</v>
+        <v>0.105</v>
       </c>
       <c r="I1113" t="n">
-        <v>7047900</v>
+        <v>643000</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -39461,28 +39461,28 @@
         </is>
       </c>
       <c r="E1114" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F1114" t="n">
-        <v>0.145</v>
+        <v>0.12</v>
       </c>
       <c r="G1114" t="n">
-        <v>0.135</v>
+        <v>0.11</v>
       </c>
       <c r="H1114" t="n">
-        <v>0.145</v>
+        <v>0.12</v>
       </c>
       <c r="I1114" t="n">
-        <v>9170500</v>
+        <v>4689500</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -39496,28 +39496,28 @@
         </is>
       </c>
       <c r="E1115" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1115" t="n">
         <v>0.145</v>
       </c>
-      <c r="F1115" t="n">
-        <v>0.155</v>
-      </c>
       <c r="G1115" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H1115" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="I1115" t="n">
-        <v>19879500</v>
+        <v>8599400</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -39531,28 +39531,28 @@
         </is>
       </c>
       <c r="E1116" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F1116" t="n">
         <v>0.155</v>
       </c>
       <c r="G1116" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="H1116" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I1116" t="n">
-        <v>6333400</v>
+        <v>23121400</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -39566,28 +39566,28 @@
         </is>
       </c>
       <c r="E1117" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F1117" t="n">
-        <v>0.155</v>
+        <v>0.14</v>
       </c>
       <c r="G1117" t="n">
-        <v>0.145</v>
+        <v>0.13</v>
       </c>
       <c r="H1117" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I1117" t="n">
-        <v>5908200</v>
+        <v>1501900</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -39601,28 +39601,28 @@
         </is>
       </c>
       <c r="E1118" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F1118" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G1118" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1118" t="n">
         <v>0.14</v>
       </c>
-      <c r="H1118" t="n">
-        <v>0.145</v>
-      </c>
       <c r="I1118" t="n">
-        <v>9305800</v>
+        <v>1579900</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -39636,28 +39636,28 @@
         </is>
       </c>
       <c r="E1119" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="F1119" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="G1119" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H1119" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="I1119" t="n">
-        <v>2807300</v>
+        <v>15955700</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -39671,28 +39671,28 @@
         </is>
       </c>
       <c r="E1120" t="n">
-        <v>0.14</v>
+        <v>0.155</v>
       </c>
       <c r="F1120" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="G1120" t="n">
-        <v>0.14</v>
+        <v>0.155</v>
       </c>
       <c r="H1120" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="I1120" t="n">
-        <v>5254500</v>
+        <v>12032800</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -39706,28 +39706,28 @@
         </is>
       </c>
       <c r="E1121" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1121" t="n">
         <v>0.14</v>
       </c>
-      <c r="F1121" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G1121" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="H1121" t="n">
-        <v>0.135</v>
-      </c>
       <c r="I1121" t="n">
-        <v>6370600</v>
+        <v>26300000</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -39741,28 +39741,28 @@
         </is>
       </c>
       <c r="E1122" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1122" t="n">
         <v>0.14</v>
       </c>
-      <c r="F1122" t="n">
-        <v>0.145</v>
-      </c>
       <c r="G1122" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="H1122" t="n">
         <v>0.14</v>
       </c>
       <c r="I1122" t="n">
-        <v>2367400</v>
+        <v>7047900</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -39785,19 +39785,19 @@
         <v>0.135</v>
       </c>
       <c r="H1123" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="I1123" t="n">
-        <v>4992300</v>
+        <v>9170500</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -39811,28 +39811,28 @@
         </is>
       </c>
       <c r="E1124" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1124" t="n">
         <v>0.14</v>
       </c>
-      <c r="F1124" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G1124" t="n">
-        <v>0.13</v>
-      </c>
       <c r="H1124" t="n">
-        <v>0.135</v>
+        <v>0.155</v>
       </c>
       <c r="I1124" t="n">
-        <v>6463600</v>
+        <v>19879500</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -39846,28 +39846,28 @@
         </is>
       </c>
       <c r="E1125" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F1125" t="n">
-        <v>0.135</v>
+        <v>0.155</v>
       </c>
       <c r="G1125" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="H1125" t="n">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="I1125" t="n">
-        <v>1076600</v>
+        <v>6333400</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -39881,28 +39881,28 @@
         </is>
       </c>
       <c r="E1126" t="n">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="F1126" t="n">
-        <v>0.135</v>
+        <v>0.155</v>
       </c>
       <c r="G1126" t="n">
-        <v>0.125</v>
+        <v>0.145</v>
       </c>
       <c r="H1126" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I1126" t="n">
-        <v>3666800</v>
+        <v>5908200</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -39916,28 +39916,28 @@
         </is>
       </c>
       <c r="E1127" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F1127" t="n">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="G1127" t="n">
-        <v>0.125</v>
+        <v>0.14</v>
       </c>
       <c r="H1127" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="I1127" t="n">
-        <v>4601200</v>
+        <v>9305800</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -39951,28 +39951,28 @@
         </is>
       </c>
       <c r="E1128" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="F1128" t="n">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="G1128" t="n">
-        <v>0.125</v>
+        <v>0.14</v>
       </c>
       <c r="H1128" t="n">
-        <v>0.125</v>
+        <v>0.145</v>
       </c>
       <c r="I1128" t="n">
-        <v>2931700</v>
+        <v>2807300</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -39986,28 +39986,28 @@
         </is>
       </c>
       <c r="E1129" t="n">
-        <v>0.125</v>
+        <v>0.14</v>
       </c>
       <c r="F1129" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1129" t="n">
         <v>0.14</v>
       </c>
-      <c r="G1129" t="n">
-        <v>0.125</v>
-      </c>
       <c r="H1129" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="I1129" t="n">
-        <v>13442300</v>
+        <v>5254500</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -40021,28 +40021,28 @@
         </is>
       </c>
       <c r="E1130" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F1130" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="G1130" t="n">
-        <v>0.12</v>
+        <v>0.135</v>
       </c>
       <c r="H1130" t="n">
-        <v>0.125</v>
+        <v>0.135</v>
       </c>
       <c r="I1130" t="n">
-        <v>3379600</v>
+        <v>6370600</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -40056,28 +40056,28 @@
         </is>
       </c>
       <c r="E1131" t="n">
-        <v>0.125</v>
+        <v>0.14</v>
       </c>
       <c r="F1131" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1131" t="n">
         <v>0.14</v>
       </c>
-      <c r="G1131" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="H1131" t="n">
-        <v>0.135</v>
-      </c>
       <c r="I1131" t="n">
-        <v>14108200</v>
+        <v>2367400</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -40094,25 +40094,25 @@
         <v>0.14</v>
       </c>
       <c r="F1132" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="G1132" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="H1132" t="n">
         <v>0.14</v>
       </c>
       <c r="I1132" t="n">
-        <v>5888100</v>
+        <v>4992300</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -40126,28 +40126,28 @@
         </is>
       </c>
       <c r="E1133" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1133" t="n">
         <v>0.135</v>
       </c>
-      <c r="F1133" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="H1133" t="n">
-        <v>0.145</v>
-      </c>
       <c r="I1133" t="n">
-        <v>16845000</v>
+        <v>6463600</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -40161,28 +40161,28 @@
         </is>
       </c>
       <c r="E1134" t="n">
-        <v>0.145</v>
+        <v>0.13</v>
       </c>
       <c r="F1134" t="n">
-        <v>0.155</v>
+        <v>0.135</v>
       </c>
       <c r="G1134" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1134" t="n">
         <v>0.135</v>
       </c>
-      <c r="H1134" t="n">
-        <v>0.155</v>
-      </c>
       <c r="I1134" t="n">
-        <v>29212400</v>
+        <v>1076600</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -40196,28 +40196,28 @@
         </is>
       </c>
       <c r="E1135" t="n">
-        <v>0.15</v>
+        <v>0.135</v>
       </c>
       <c r="F1135" t="n">
-        <v>0.165</v>
+        <v>0.135</v>
       </c>
       <c r="G1135" t="n">
-        <v>0.145</v>
+        <v>0.125</v>
       </c>
       <c r="H1135" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I1135" t="n">
-        <v>29559300</v>
+        <v>3666800</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -40231,28 +40231,28 @@
         </is>
       </c>
       <c r="E1136" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F1136" t="n">
-        <v>0.165</v>
+        <v>0.135</v>
       </c>
       <c r="G1136" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="H1136" t="n">
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="I1136" t="n">
-        <v>18187600</v>
+        <v>4601200</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -40266,28 +40266,28 @@
         </is>
       </c>
       <c r="E1137" t="n">
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="F1137" t="n">
-        <v>0.16</v>
+        <v>0.135</v>
       </c>
       <c r="G1137" t="n">
-        <v>0.14</v>
+        <v>0.125</v>
       </c>
       <c r="H1137" t="n">
-        <v>0.145</v>
+        <v>0.125</v>
       </c>
       <c r="I1137" t="n">
-        <v>43026400</v>
+        <v>2931700</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -40301,28 +40301,28 @@
         </is>
       </c>
       <c r="E1138" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1138" t="n">
         <v>0.14</v>
       </c>
-      <c r="F1138" t="n">
-        <v>0.145</v>
-      </c>
       <c r="G1138" t="n">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="H1138" t="n">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="I1138" t="n">
-        <v>37905200</v>
+        <v>13442300</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -40336,28 +40336,28 @@
         </is>
       </c>
       <c r="E1139" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1139" t="n">
         <v>0.125</v>
       </c>
-      <c r="F1139" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="G1139" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="H1139" t="n">
-        <v>0.105</v>
-      </c>
       <c r="I1139" t="n">
-        <v>33078500</v>
+        <v>3379600</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -40371,28 +40371,28 @@
         </is>
       </c>
       <c r="E1140" t="n">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="F1140" t="n">
-        <v>0.105</v>
+        <v>0.14</v>
       </c>
       <c r="G1140" t="n">
-        <v>0.095</v>
+        <v>0.125</v>
       </c>
       <c r="H1140" t="n">
-        <v>0.105</v>
+        <v>0.135</v>
       </c>
       <c r="I1140" t="n">
-        <v>8620700</v>
+        <v>14108200</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -40406,28 +40406,28 @@
         </is>
       </c>
       <c r="E1141" t="n">
-        <v>0.105</v>
+        <v>0.14</v>
       </c>
       <c r="F1141" t="n">
-        <v>0.105</v>
+        <v>0.14</v>
       </c>
       <c r="G1141" t="n">
-        <v>0.095</v>
+        <v>0.13</v>
       </c>
       <c r="H1141" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I1141" t="n">
-        <v>4080700</v>
+        <v>5888100</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -40441,28 +40441,28 @@
         </is>
       </c>
       <c r="E1142" t="n">
-        <v>0.1</v>
+        <v>0.135</v>
       </c>
       <c r="F1142" t="n">
-        <v>0.1</v>
+        <v>0.145</v>
       </c>
       <c r="G1142" t="n">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
       <c r="H1142" t="n">
-        <v>0.095</v>
+        <v>0.145</v>
       </c>
       <c r="I1142" t="n">
-        <v>3488400</v>
+        <v>16845000</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -40476,28 +40476,28 @@
         </is>
       </c>
       <c r="E1143" t="n">
-        <v>0.095</v>
+        <v>0.145</v>
       </c>
       <c r="F1143" t="n">
-        <v>0.105</v>
+        <v>0.155</v>
       </c>
       <c r="G1143" t="n">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
       <c r="H1143" t="n">
-        <v>0.095</v>
+        <v>0.155</v>
       </c>
       <c r="I1143" t="n">
-        <v>4868300</v>
+        <v>29212400</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -40511,28 +40511,28 @@
         </is>
       </c>
       <c r="E1144" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F1144" t="n">
-        <v>0.105</v>
+        <v>0.165</v>
       </c>
       <c r="G1144" t="n">
-        <v>0.1</v>
+        <v>0.145</v>
       </c>
       <c r="H1144" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I1144" t="n">
-        <v>1745900</v>
+        <v>29559300</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -40546,28 +40546,28 @@
         </is>
       </c>
       <c r="E1145" t="n">
-        <v>0.095</v>
+        <v>0.16</v>
       </c>
       <c r="F1145" t="n">
-        <v>0.1</v>
+        <v>0.165</v>
       </c>
       <c r="G1145" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="H1145" t="n">
-        <v>0.095</v>
+        <v>0.155</v>
       </c>
       <c r="I1145" t="n">
-        <v>4018100</v>
+        <v>18187600</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -40581,28 +40581,28 @@
         </is>
       </c>
       <c r="E1146" t="n">
-        <v>0.09</v>
+        <v>0.155</v>
       </c>
       <c r="F1146" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="G1146" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="H1146" t="n">
-        <v>0.095</v>
+        <v>0.145</v>
       </c>
       <c r="I1146" t="n">
-        <v>1883300</v>
+        <v>43026400</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -40616,28 +40616,28 @@
         </is>
       </c>
       <c r="E1147" t="n">
-        <v>0.095</v>
+        <v>0.14</v>
       </c>
       <c r="F1147" t="n">
-        <v>0.1</v>
+        <v>0.145</v>
       </c>
       <c r="G1147" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="H1147" t="n">
-        <v>0.09</v>
+        <v>0.125</v>
       </c>
       <c r="I1147" t="n">
-        <v>4772400</v>
+        <v>37905200</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -40651,28 +40651,28 @@
         </is>
       </c>
       <c r="E1148" t="n">
-        <v>0.09</v>
+        <v>0.125</v>
       </c>
       <c r="F1148" t="n">
-        <v>0.095</v>
+        <v>0.125</v>
       </c>
       <c r="G1148" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="H1148" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="I1148" t="n">
-        <v>3454100</v>
+        <v>33078500</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -40686,28 +40686,28 @@
         </is>
       </c>
       <c r="E1149" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="F1149" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G1149" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="H1149" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="I1149" t="n">
-        <v>8621500</v>
+        <v>8620700</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -40721,28 +40721,28 @@
         </is>
       </c>
       <c r="E1150" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="F1150" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G1150" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="H1150" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="I1150" t="n">
-        <v>2973000</v>
+        <v>4080700</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -40756,28 +40756,28 @@
         </is>
       </c>
       <c r="E1151" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="F1151" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G1151" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="H1151" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="I1151" t="n">
-        <v>1020200</v>
+        <v>3488400</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -40791,28 +40791,28 @@
         </is>
       </c>
       <c r="E1152" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="F1152" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G1152" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="H1152" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="I1152" t="n">
-        <v>868100</v>
+        <v>4868300</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -40826,28 +40826,28 @@
         </is>
       </c>
       <c r="E1153" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="F1153" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G1153" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H1153" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I1153" t="n">
-        <v>1158200</v>
+        <v>1745900</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -40861,28 +40861,28 @@
         </is>
       </c>
       <c r="E1154" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="F1154" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G1154" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="H1154" t="n">
-        <v>0.065</v>
+        <v>0.095</v>
       </c>
       <c r="I1154" t="n">
-        <v>1482100</v>
+        <v>4018100</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -40896,28 +40896,28 @@
         </is>
       </c>
       <c r="E1155" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F1155" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G1155" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="H1155" t="n">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="I1155" t="n">
-        <v>3030200</v>
+        <v>1883300</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -40931,28 +40931,28 @@
         </is>
       </c>
       <c r="E1156" t="n">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="F1156" t="n">
-        <v>0.055</v>
+        <v>0.1</v>
       </c>
       <c r="G1156" t="n">
-        <v>0.045</v>
+        <v>0.09</v>
       </c>
       <c r="H1156" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I1156" t="n">
-        <v>2067400</v>
+        <v>4772400</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -40966,28 +40966,28 @@
         </is>
       </c>
       <c r="E1157" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="F1157" t="n">
-        <v>0.055</v>
+        <v>0.095</v>
       </c>
       <c r="G1157" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H1157" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1157" t="n">
-        <v>477500</v>
+        <v>3454100</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -41001,53 +41001,368 @@
         </is>
       </c>
       <c r="E1158" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F1158" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1158" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H1158" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="I1158" t="n">
-        <v>2413200</v>
+        <v>8621500</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>2973000</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>1020200</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>868100</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>1158200</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>1482100</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>3030200</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>2067400</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>477500</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>2413200</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B1159" t="inlineStr">
+      <c r="B1168" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C1159" t="inlineStr">
-        <is>
-          <t>5265</t>
-        </is>
-      </c>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>DOLPHIN</t>
-        </is>
-      </c>
-      <c r="E1159" t="n">
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
         <v>0.04</v>
       </c>
-      <c r="F1159" t="n">
+      <c r="F1168" t="n">
         <v>0.045</v>
       </c>
-      <c r="G1159" t="n">
+      <c r="G1168" t="n">
         <v>0.04</v>
       </c>
-      <c r="H1159" t="n">
+      <c r="H1168" t="n">
         <v>0.045</v>
       </c>
-      <c r="I1159" t="n">
+      <c r="I1168" t="n">
         <v>1820400</v>
       </c>
     </row>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1168"/>
+  <dimension ref="A1:I1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41366,6 +41366,41 @@
         <v>1820400</v>
       </c>
     </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>2015900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1169"/>
+  <dimension ref="A1:I1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41401,6 +41401,41 @@
         <v>2015900</v>
       </c>
     </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>1153100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1170"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41436,6 +41436,41 @@
         <v>1153100</v>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>775800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1171"/>
+  <dimension ref="A1:I1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41471,6 +41471,41 @@
         <v>775800</v>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1057800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1172"/>
+  <dimension ref="A1:I1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41506,6 +41506,41 @@
         <v>1057800</v>
       </c>
     </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>3316700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1173"/>
+  <dimension ref="A1:I1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41541,6 +41541,41 @@
         <v>3316700</v>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>445000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1174"/>
+  <dimension ref="A1:I1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41576,6 +41576,41 @@
         <v>445000</v>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2225100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1175"/>
+  <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41611,6 +41611,41 @@
         <v>2225100</v>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>1932500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1176"/>
+  <dimension ref="A1:I1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41646,6 +41646,41 @@
         <v>1932500</v>
       </c>
     </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>7326900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41681,6 +41681,41 @@
         <v>7326900</v>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>16302200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41716,6 +41716,41 @@
         <v>16302200</v>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1823300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41751,6 +41751,41 @@
         <v>1823300</v>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1916100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41786,6 +41786,41 @@
         <v>1916100</v>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>5889100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41821,6 +41821,41 @@
         <v>5889100</v>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>16605200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41856,6 +41856,41 @@
         <v>16605200</v>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>8635900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41891,6 +41891,41 @@
         <v>8635900</v>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>3501400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41926,6 +41926,41 @@
         <v>3501400</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>1367400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41961,6 +41961,41 @@
         <v>1367400</v>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>1769100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41996,6 +41996,41 @@
         <v>1769100</v>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3568300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42031,6 +42031,41 @@
         <v>3568300</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>788400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42066,6 +42066,41 @@
         <v>788400</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>281400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42101,6 +42101,41 @@
         <v>281400</v>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1515000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42136,6 +42136,41 @@
         <v>1515000</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>799900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42171,6 +42171,41 @@
         <v>799900</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>935500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42206,6 +42206,41 @@
         <v>935500</v>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>2490500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42241,6 +42241,76 @@
         <v>2490500</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1195700</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>558400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42311,6 +42311,41 @@
         <v>558400</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>30400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42346,6 +42346,111 @@
         <v>30400</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>505600</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>1004100</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>11336100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42451,6 +42451,41 @@
         <v>11336100</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>18123100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42486,6 +42486,41 @@
         <v>18123100</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>3005200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5265.xlsx
+++ b/data/5265.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42521,6 +42521,111 @@
         <v>3005200</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>1282400</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1782300</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>DOLPHIN</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>559600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
